--- a/demo/src/main/resources/spreadsheet/Workout Spreadsheet.xlsx
+++ b/demo/src/main/resources/spreadsheet/Workout Spreadsheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keonv\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D8E89-5C5C-4696-BB95-1AE3CFA09D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,9 +93,6 @@
     <t>bench_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/CjHIKDQ4RQo?si=pv-zSzAcl2K1by8I</t>
-  </si>
-  <si>
     <t>Dumbbell</t>
   </si>
   <si>
@@ -101,9 +102,6 @@
     <t>dumbbell_bench_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/AduT4Eq-iP0?si=5QgVZZjgmXXFKdlX</t>
-  </si>
-  <si>
     <t>Smith Machine</t>
   </si>
   <si>
@@ -113,9 +111,6 @@
     <t>smith_machine_bench_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/O5viuEPDXKY?si=9XpbCr7AHM2QSeYG</t>
-  </si>
-  <si>
     <t>Leg Press</t>
   </si>
   <si>
@@ -128,9 +123,6 @@
     <t>leg_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/p5dCqF7wWUw?si=E_qZI14bLezAVMPa</t>
-  </si>
-  <si>
     <t>Chest press</t>
   </si>
   <si>
@@ -140,9 +132,6 @@
     <t>chest_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/sqNwDkUU_Ps?si=mQGumC5AEXHD7164</t>
-  </si>
-  <si>
     <t>Cardio</t>
   </si>
   <si>
@@ -158,9 +147,6 @@
     <t>treadmill.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/HxsFneJFM2c?si=X3MxIgdttXbGqNeb</t>
-  </si>
-  <si>
     <t>Stationary Bike</t>
   </si>
   <si>
@@ -170,9 +156,6 @@
     <t>stationary_bike.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/NwwDBARCGgo?si=GZvpvwFMZUwBBC4o</t>
-  </si>
-  <si>
     <t>Cross Trainer</t>
   </si>
   <si>
@@ -182,9 +165,6 @@
     <t>cross_trainer.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/yISC2qwdh9I?si=z8YCRETO9Mm9x_oj</t>
-  </si>
-  <si>
     <t>Recumbent Bike</t>
   </si>
   <si>
@@ -194,9 +174,6 @@
     <t>recumbent_bike.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/XugMoMDxyhM?si=bKcqHyNzFUsOHZjz</t>
-  </si>
-  <si>
     <t>Rowing Machine</t>
   </si>
   <si>
@@ -206,9 +183,6 @@
     <t>rowing_machine.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/6_eLpWiNijE?si=3fSWhUhdacTJccyt</t>
-  </si>
-  <si>
     <t>Arc Trainer</t>
   </si>
   <si>
@@ -218,9 +192,6 @@
     <t>arc_trainer.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/r58nxtqD_zQ?si=hYLlQf1nrp8KPqiu</t>
-  </si>
-  <si>
     <t>Air Bike</t>
   </si>
   <si>
@@ -230,9 +201,6 @@
     <t>air_bike.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/KC-ZSfOmXgE?si=ZDTh8cgEnGs4fDyD</t>
-  </si>
-  <si>
     <t>Rows</t>
   </si>
   <si>
@@ -245,9 +213,6 @@
     <t>dumbbell_rows.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/DMo3HJoawrU?si=F6EwklDWr_ONIrrg</t>
-  </si>
-  <si>
     <t>Barbell</t>
   </si>
   <si>
@@ -257,18 +222,12 @@
     <t>barbell_row.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/9Gf-Ourup_k?si=WGxFVp_UH2LpfQoC</t>
-  </si>
-  <si>
     <t>A trapezius exercise where you shrug your shoulders upwards while holding dumbbells, targeting the trapezius muscles.</t>
   </si>
   <si>
     <t>smith_machine_rows.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/3QcJggd_L24?si=3mXKLF6sfiTQuS9B</t>
-  </si>
-  <si>
     <t>Kettlebell</t>
   </si>
   <si>
@@ -278,9 +237,6 @@
     <t>kettlebell_rows.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/l5qelXL5nfs?si=9o6AXZIgh94U9rRh</t>
-  </si>
-  <si>
     <t>Chest Flyes</t>
   </si>
   <si>
@@ -290,18 +246,12 @@
     <t>chest_flyes.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/eGjt4lk6g34?si=D0UQxcwg6HVXqIY-</t>
-  </si>
-  <si>
     <t>A lower body exercise where you step forward into a lunge while holding dumbbells, targeting the quadriceps, glutes, and hamstrings.</t>
   </si>
   <si>
     <t>dumbbell_chest_flyes.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/Nhvz9EzdJ4U?si=_aDy1DSu928Gq2f2</t>
-  </si>
-  <si>
     <t>Cable Machine</t>
   </si>
   <si>
@@ -311,9 +261,6 @@
     <t>cable_flye.jpg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4mfLHnFL0Uw</t>
-  </si>
-  <si>
     <t>Shoulder Press</t>
   </si>
   <si>
@@ -323,27 +270,18 @@
     <t>shoulder_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/TnhIyp4kmO8?si=pQjCUxD-WaCav11r</t>
-  </si>
-  <si>
     <t>A lower body exercise where you step onto a bench or platform while holding dumbbells, targeting the quadriceps, glutes, and hamstrings.</t>
   </si>
   <si>
     <t>dumbbell_shoulder_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/aI2hGzsAMXs?si=wOy1HmO7oK47Ppbd</t>
-  </si>
-  <si>
     <t>A full-body exercise where you lift dumbbells from the ground while maintaining a neutral spine, focusing on the hamstrings, glutes, and lower back.</t>
   </si>
   <si>
     <t>smith_machine_shoulder_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/OLqZDUUD2b0?si=kWgRBm1sBLswPAWV</t>
-  </si>
-  <si>
     <t>Lateral Raises</t>
   </si>
   <si>
@@ -353,18 +291,12 @@
     <t>dumbbell_lateral_raises.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/z-kOn7flIZg?si=pQYFUMinE_mY6lpV</t>
-  </si>
-  <si>
     <t>A core exercise where you rotate your torso while holding a dumbbell, targeting the oblique muscles.</t>
   </si>
   <si>
     <t>cable_lateral raises.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/Z5FA9aq3L6A?si=Cc53pYHfvoolsi3A</t>
-  </si>
-  <si>
     <t>Bicep Curls</t>
   </si>
   <si>
@@ -374,18 +306,12 @@
     <t>dumbbell_bicep_curls.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/MtXdEcW3Eog?si=10RrXzLOKtjWYCjF</t>
-  </si>
-  <si>
     <t>A core exercise where you bend sideways while holding a dumbbell, targeting the oblique muscles.</t>
   </si>
   <si>
     <t>cable_bicep_curls.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/GNlopToAZyg?si=DI0GDl97boWWVAHN</t>
-  </si>
-  <si>
     <t>Overhead Tricep Extension</t>
   </si>
   <si>
@@ -395,9 +321,6 @@
     <t>dumbbell_overhead_tricep_extensions.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/9wxRhONFsRA?si=J4_linah4HGlFHD3</t>
-  </si>
-  <si>
     <t>Tricep Kickbacks</t>
   </si>
   <si>
@@ -407,9 +330,6 @@
     <t>dumbbell_kickbacks.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/m_UlDFNX4mk?si=AD50-IPsMZefHJ2v</t>
-  </si>
-  <si>
     <t>Reverse Flyes</t>
   </si>
   <si>
@@ -419,9 +339,6 @@
     <t>dumbbell_reverse_flyes.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/hf7jnF45N_I?si=HYCzqTTBbp3bNSS3</t>
-  </si>
-  <si>
     <t>Front Raise</t>
   </si>
   <si>
@@ -431,9 +348,6 @@
     <t>dumbbell_front_raise.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/zkP0MsTcIVU?si=nRqEoTB8YaxCuZFp</t>
-  </si>
-  <si>
     <t>Shrugs</t>
   </si>
   <si>
@@ -443,18 +357,12 @@
     <t>dumbbell_shrugs.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/SX1FE0URdv8?si=2y0VFuqw2Qn822lI</t>
-  </si>
-  <si>
     <t>A full-body exercise where you lift a barbell from the ground while maintaining a neutral spine, focusing on the hamstrings, glutes, lower back, and core.</t>
   </si>
   <si>
     <t>barbell_shrugs.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/larn3Asl6oM?si=JkgOKUuFEWn-oqps</t>
-  </si>
-  <si>
     <t>Hammer Curl</t>
   </si>
   <si>
@@ -464,9 +372,6 @@
     <t>dumbbell_hammer_curls.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/B4RznoFvTl4?si=1ofOg0sTJTqmxfqv</t>
-  </si>
-  <si>
     <t>Concentration Curl</t>
   </si>
   <si>
@@ -476,9 +381,6 @@
     <t>dumbbell_concentration_curl.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/llD6MImgqe8?si=4TcVrrTwc0HAPvMn</t>
-  </si>
-  <si>
     <t>Lunges</t>
   </si>
   <si>
@@ -488,27 +390,18 @@
     <t>dumbbell_lunges.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/9gglI77Kzq8?si=I2TrCEkoe4zoEDVq</t>
-  </si>
-  <si>
     <t>A lower body exercise where you step forward into a lunge while holding a barbell on your shoulders, targeting the quadriceps, glutes, and hamstrings.</t>
   </si>
   <si>
     <t>barbell_lunges.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/NcDtORTfVNQ?si=mpYy66lL99iIacXJ</t>
-  </si>
-  <si>
     <t>A glute exercise where you thrust your hips upwards with a barbell across your hips, focusing on the glutes and hamstrings.</t>
   </si>
   <si>
     <t>smith_machine_lunges.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/qY7Yo0x5mhE?si=yFQNAB12B2AOg5F_</t>
-  </si>
-  <si>
     <t>Goblet Squats</t>
   </si>
   <si>
@@ -518,9 +411,6 @@
     <t>dumbbell_squats.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/UFStLR88gOk?si=sbWDJ0Yu-16Ya5gc</t>
-  </si>
-  <si>
     <t>Romanian Deadlifts</t>
   </si>
   <si>
@@ -533,18 +423,12 @@
     <t>dumbbell_romanian_deadlifts.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/plb5jEO4Unw?si=toLkXql3nBT_X6_Y</t>
-  </si>
-  <si>
     <t>A squat performed on a Smith Machine, allowing for greater control and targeting the quadriceps, hamstrings, and glutes.</t>
   </si>
   <si>
     <t>smith_machine_romanian_deadlift.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/NBR6tozmx2I?si=ccWPZioBHxZbpxHD</t>
-  </si>
-  <si>
     <t>Step-ups</t>
   </si>
   <si>
@@ -554,9 +438,6 @@
     <t>dumbbell_stepups.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/DxUNi119Qzs?si=CosuKkAF90KR3bv3</t>
-  </si>
-  <si>
     <t>Deadlifts</t>
   </si>
   <si>
@@ -572,18 +453,12 @@
     <t>barbell_deadlift.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/yPqv3ejnZvc?si=lb1eWXDfUFJu7q9T</t>
-  </si>
-  <si>
     <t>A shoulder exercise performed on a Smith Machine where you press the bar upwards from shoulder level, targeting the deltoids and triceps with added stability from the machine.</t>
   </si>
   <si>
     <t>smith_machine_deadlifts.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/p6KK6yHxd4k?si=M0_UHg0XUItlHzsN</t>
-  </si>
-  <si>
     <t>Bulgarian Split Squat</t>
   </si>
   <si>
@@ -593,9 +468,6 @@
     <t>dumbbell_bulgarian_split_squat.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/vLuhN_glFZ8?si=mYolItied7OfsFrI</t>
-  </si>
-  <si>
     <t>Russian Twists</t>
   </si>
   <si>
@@ -608,9 +480,6 @@
     <t>dumbbell_russian_twists.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/FShbaqrGGu4?si=tJZunZsRLOPhWYs3</t>
-  </si>
-  <si>
     <t>Medicine Ball</t>
   </si>
   <si>
@@ -620,9 +489,6 @@
     <t>medicineball_russian_twists.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/0V-8kqnPPeM?si=zgGcm7EaTaxLMjUh</t>
-  </si>
-  <si>
     <t>Woodchops</t>
   </si>
   <si>
@@ -632,27 +498,18 @@
     <t>dumbbell_woodchops.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/wsbcev7aYeU?si=1OmafGhrh_eV8iHe</t>
-  </si>
-  <si>
     <t>A bench press variation where the grip is narrow, focusing more on the triceps than the chest.</t>
   </si>
   <si>
     <t>medicineball_woodchops.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/yHzVcjDQKQU?si=K6elVPP4lhaJnlOS</t>
-  </si>
-  <si>
     <t>A hip thrust exercise performed on a Smith Machine, focusing on the glutes and hamstrings.</t>
   </si>
   <si>
     <t>cable_woodchops.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/gcGNypjIQDo?si=pKG6e4kD5O3nw1ji</t>
-  </si>
-  <si>
     <t>Side Bends</t>
   </si>
   <si>
@@ -662,9 +519,6 @@
     <t>dumbbell_side_bends.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/dL9ZzqtQI5c?si=A9Q81o6ik034YN6L</t>
-  </si>
-  <si>
     <t>Plank Row</t>
   </si>
   <si>
@@ -674,9 +528,6 @@
     <t>dumbbell_plank_row.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/iXu2QK049rU?si=bpA2Wc-qwSH3ygMZ</t>
-  </si>
-  <si>
     <t>Lat Pull Down</t>
   </si>
   <si>
@@ -686,9 +537,6 @@
     <t>lat_pull_down.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/JGeRYIZdojU?si=QOBQ0gFNn7T1ZuuT</t>
-  </si>
-  <si>
     <t>Squats</t>
   </si>
   <si>
@@ -698,45 +546,30 @@
     <t>barbell_squats.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/tAJucO55-bQ?si=DR1NODfm_j7PY3Fu</t>
-  </si>
-  <si>
     <t>A hamstring isolation exercise performed on a machine where you curl your legs upwards, targeting the hamstrings.</t>
   </si>
   <si>
     <t>smith_machine_squats.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/-eO_VydErV0?si=m7Da6vNlVF0424XF</t>
-  </si>
-  <si>
     <t>A quadriceps isolation exercise performed on a machine where you extend your legs forward, targeting the quadriceps.</t>
   </si>
   <si>
     <t>kettlebell_squats.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/zBV3ceGyAxw?si=AYobG6gHjkx4z1xf</t>
-  </si>
-  <si>
     <t>A dynamic exercise where you swing a kettlebell between your legs and up to shoulder height, targeting the posterior chain and core.</t>
   </si>
   <si>
     <t>medicineball_squat.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/kVWtlBl5PvU?si=ESjwXeOjBPn8XRG7</t>
-  </si>
-  <si>
     <t>A squat performed while holding a kettlebell, targeting the quadriceps, glutes, and core.</t>
   </si>
   <si>
     <t>cable_squats.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/QJ4T1pUJ_zw?si=jaE68zCRVIyS4rmY</t>
-  </si>
-  <si>
     <t>Overhead Press</t>
   </si>
   <si>
@@ -746,18 +579,12 @@
     <t>barbell_overhead_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/-5MmFTKLC-0?si=KQBHMGIprKi2iCaz</t>
-  </si>
-  <si>
     <t>A shoulder press performed with a kettlebell, targeting the deltoids and triceps.</t>
   </si>
   <si>
     <t>smith_machine_overhead_press.jpg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oYbWXyEdQkQ</t>
-  </si>
-  <si>
     <t>Curl</t>
   </si>
   <si>
@@ -767,9 +594,6 @@
     <t>barbell_curl.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/N5x5M1x1Gd0?si=8LKdU5r7ivZ-q_ED</t>
-  </si>
-  <si>
     <t>Hip Thrust</t>
   </si>
   <si>
@@ -779,18 +603,12 @@
     <t>barbell_hip_thrust.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/aweBS7K71l8?si=vAuxTf3OMzYa7OLu</t>
-  </si>
-  <si>
     <t>A posterior chain exercise performed with a kettlebell, focusing on the hamstrings and lower back.</t>
   </si>
   <si>
     <t>smith_machine_hip_thrust.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/s6u3ESE4kMg?si=uNOcC1iP8DaWWMzN</t>
-  </si>
-  <si>
     <t>Calf Raises</t>
   </si>
   <si>
@@ -800,9 +618,6 @@
     <t>smith_machine_calf_raises.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/hh5516HCu4k?si=7Qwl-9-zitSkCvN3</t>
-  </si>
-  <si>
     <t>Behind the Neck Press</t>
   </si>
   <si>
@@ -812,9 +627,6 @@
     <t>smith_machine_behind_the_neck.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/Ex81dYhX8FI?si=NuhXvaM0jBXU5H5C</t>
-  </si>
-  <si>
     <t>Goodmornings</t>
   </si>
   <si>
@@ -824,36 +636,24 @@
     <t>dumbbell_goodmornings.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/wUbsMNkkpLk?si=sQi9auOabwGGJdif</t>
-  </si>
-  <si>
     <t>A squat variation using a medicine ball, targeting the quadriceps, glutes, and core.</t>
   </si>
   <si>
     <t>barbell_goodmornings.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/nWyx81AfTos?si=AvMUK_qtTY3AZeq6</t>
-  </si>
-  <si>
     <t>A push-up variation where your hands are placed on a medicine ball, targeting the chest, shoulders, and triceps.</t>
   </si>
   <si>
     <t>smith_machine_goodmornings.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/leEtTkR_OKE?si=eOnUs0h1V0XZlV_Y</t>
-  </si>
-  <si>
     <t>A dynamic full-body exercise where you mimic chopping wood by rotating and lifting a medicine ball diagonally, targeting the core and obliques.</t>
   </si>
   <si>
     <t>kettlebell_goodmornings.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/FiVuO6Y5UcU?si=-vLE93BdKCJsk535</t>
-  </si>
-  <si>
     <t>Assisted Pull Up</t>
   </si>
   <si>
@@ -863,9 +663,6 @@
     <t>assisted_chinup.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/wFj808u2HWU?si=IbqfVGLhLz9-SzX3</t>
-  </si>
-  <si>
     <t>Leg Curls</t>
   </si>
   <si>
@@ -875,9 +672,6 @@
     <t>leg_curl.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/qca__Qgjf1Y?si=_C-HYEASb7i0v8yO</t>
-  </si>
-  <si>
     <t>Leg Extensions</t>
   </si>
   <si>
@@ -887,9 +681,6 @@
     <t>leg_extensions.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/4ZDm5EbiFI8?si=H8w_8NcmNu1bDkwt</t>
-  </si>
-  <si>
     <t>Swings</t>
   </si>
   <si>
@@ -899,9 +690,6 @@
     <t>kettlebell_swing.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/6A0yJetx7hg?si=QMOX8ZQ8fwBm6km-</t>
-  </si>
-  <si>
     <t>Press</t>
   </si>
   <si>
@@ -911,9 +699,6 @@
     <t>kettlebell_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/gjr-QAdsq4o?si=0X51qfL9Gc7xHvM-</t>
-  </si>
-  <si>
     <t>Snatches or Cleans</t>
   </si>
   <si>
@@ -923,9 +708,6 @@
     <t>kettlebell_snatches_or_cleans.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/xZyGP55NkAo?si=Siu9132c4QWWyZ_O</t>
-  </si>
-  <si>
     <t>Slams</t>
   </si>
   <si>
@@ -935,9 +717,6 @@
     <t>medicineball_slam.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/DMrxbUgoZTg?si=IQER0HKK1FE6bf2E</t>
-  </si>
-  <si>
     <t>Wall Throws</t>
   </si>
   <si>
@@ -947,9 +726,6 @@
     <t>medicineball_wall_throws.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/MSSEoBnxPtM?si=OoM-sUnr8v2cEKHL</t>
-  </si>
-  <si>
     <t>Push-ups</t>
   </si>
   <si>
@@ -959,9 +735,6 @@
     <t>medicineball_pushups.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/-cqo-oailwk?si=T2Qt18AqF2yRgVSy</t>
-  </si>
-  <si>
     <t>Hack Squat</t>
   </si>
   <si>
@@ -971,9 +744,6 @@
     <t>hack_squat.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/scs5XcsZuc8?si=VQqUc0HBuvZlbcAf</t>
-  </si>
-  <si>
     <t>Preacher Curl</t>
   </si>
   <si>
@@ -983,9 +753,6 @@
     <t>preacher_curl.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/Ja6ZlIDONac?si=wFfy4erDLOjvWTsC</t>
-  </si>
-  <si>
     <t>Seated Row</t>
   </si>
   <si>
@@ -995,18 +762,12 @@
     <t>seated_row.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/TeFo51Q_Nsc?si=LpIE1CYbN7N0e7He</t>
-  </si>
-  <si>
     <t>A chest isolation exercise performed on a cable machine where you bring your arms together in an arc, targeting the pectoral muscles.</t>
   </si>
   <si>
     <t>cable_seated_row.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/lJoozxC0Rns?si=YPLIRQLrrg8J6wnZ</t>
-  </si>
-  <si>
     <t>Tricep Pushdowns</t>
   </si>
   <si>
@@ -1016,9 +777,6 @@
     <t>cable_tricep_pushdown.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/LXkCrxn3caQ?si=0ExjVabd-A4uW9NF</t>
-  </si>
-  <si>
     <t>Kickbacks</t>
   </si>
   <si>
@@ -1028,9 +786,6 @@
     <t>cable_kickback.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/SqO-VUEak2M?si=yQh_sJU0qqjsdmlw</t>
-  </si>
-  <si>
     <t>Crunches</t>
   </si>
   <si>
@@ -1040,9 +795,6 @@
     <t>cable_crunches.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/b9FJ4hIK3pI?si=9auJRLdRYifV6rg_</t>
-  </si>
-  <si>
     <t>Pallof Press</t>
   </si>
   <si>
@@ -1052,9 +804,6 @@
     <t>cable_pallof_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/-0N2xTi69t8?si=gN9p4MOoVdgIKxaq</t>
-  </si>
-  <si>
     <t>Hip Adduction</t>
   </si>
   <si>
@@ -1064,9 +813,6 @@
     <t>hip_adduction.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/CjAVezAggkI?si=f--XXTeZawwY685Q</t>
-  </si>
-  <si>
     <t>Flye</t>
   </si>
   <si>
@@ -1082,20 +828,272 @@
     <t>smith_machine_close_grip_bench_press.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/qf_FTh3QyYs?si=vAlffNIQgYRWeK3Z</t>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/CjHIKDQ4RQo?si=Nl6wuK6-gTj95SLa" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/O5viuEPDXKY?si=cSxtgvqbGxYsbXY7&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/AduT4Eq-iP0?si=5QgVZZjgmXXFKdlX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/p5dCqF7wWUw?si=Nwl1mW5y0PJX0mVs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/sqNwDkUU_Ps?si=ffMH9200TlKy9X0e" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/NwwDBARCGgo?si=GZvpvwFMZUwBBC4o" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/HxsFneJFM2c?si=dnBxdpkz3fTVilkU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/yISC2qwdh9I?si=Gv04SZL6mtskKWsO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/XugMoMDxyhM?si=bKcqHyNzFUsOHZjz&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/6_eLpWiNijE?si=3fSWhUhdacTJccyt" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/r58nxtqD_zQ?si=vd5gszhObAJVGBaR&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/KC-ZSfOmXgE?si=M9sBWmUvKlb0HQKU&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/9Gf-Ourup_k?si=WGxFVp_UH2LpfQoC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/DMo3HJoawrU?si=F6EwklDWr_ONIrrg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/3QcJggd_L24?si=1USxw-mpDTmiqWhe&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/l5qelXL5nfs?si=9o6AXZIgh94U9rRh&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/eGjt4lk6g34?si=9ToRIovqSG154x3m" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Nhvz9EzdJ4U?si=_aDy1DSu928Gq2f2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/4mfLHnFL0Uw?si=PAvgSkAmyw7vakXf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/TnhIyp4kmO8?si=0uMxho43AHhjqXzX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/aI2hGzsAMXs?si=NipUUIO78sUzGaL5" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/OLqZDUUD2b0?si=sHuJcbyAbI-NRGAZ&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/z-kOn7flIZg?si=T6X66IraESeO__8V" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Z5FA9aq3L6A?si=Cc53pYHfvoolsi3A" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/MtXdEcW3Eog?si=53BHIkx_-yjPhqZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/GNlopToAZyg?si=DI0GDl97boWWVAHN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/9wxRhONFsRA?si=zteT7mBh6I4NYSXr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/m_UlDFNX4mk?si=AD50-IPsMZefHJ2v" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/hf7jnF45N_I?si=yR1gX7QSlGEcegmK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/zkP0MsTcIVU?si=fdc4vxkfWo8tV5Os" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/SX1FE0URdv8?si=2y0VFuqw2Qn822lI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/larn3Asl6oM?si=JkgOKUuFEWn-oqps" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/B4RznoFvTl4?si=1ofOg0sTJTqmxfqv" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/llD6MImgqe8?si=Qufg_OplNBKVu9Q3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/9gglI77Kzq8?si=I2TrCEkoe4zoEDVq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/NcDtORTfVNQ?si=p_hZabDe2QDEbOEN&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/qY7Yo0x5mhE?si=tYMu8SfmEsYsBTlR&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/UFStLR88gOk?si=mYlNRAKsMnEHhdzL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/plb5jEO4Unw?si=toLkXql3nBT_X6_Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/NBR6tozmx2I?si=ccWPZioBHxZbpxHD&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/DxUNi119Qzs?si=CosuKkAF90KR3bv3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/yPqv3ejnZvc?si=-Y7Eczr6k7O4MMfZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/p6KK6yHxd4k?si=_mEghTdVvpaQDV-r" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/vLuhN_glFZ8?si=mYolItied7OfsFrI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/FShbaqrGGu4?si=tJZunZsRLOPhWYs3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/0V-8kqnPPeM?si=hHCIrEwtG6FnCavk&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/yHzVcjDQKQU?si=LdtlPKxPjIEj0YiA&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/wsbcev7aYeU?si=kVqwaRd826S2wIgA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/dL9ZzqtQI5c?si=A9Q81o6ik034YN6L" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/iXu2QK049rU?si=NtJLzj_YLpYPk0EE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/JGeRYIZdojU?si=maAz1BsN9hpw3SL0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/gcGNypjIQDo?si=pKG6e4kD5O3nw1ji&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/tAJucO55-bQ?si=WyAeUzYhX4uHS0HU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-eO_VydErV0?si=Epzsslcfk6pyfmSV&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/zBV3ceGyAxw?si=ETmktI93Xs0IjutC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/kVWtlBl5PvU?si=hgPb3uj_R1sFhrxR&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/QJ4T1pUJ_zw?si=VhSRMkAqqHTI4moj&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-5MmFTKLC-0?si=bvM5E-fc2nXCawJj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/oYbWXyEdQkQ?si=WwJoVuxkv51_lIZ-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/N5x5M1x1Gd0?si=qDKEbauv_AEUtelO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/aweBS7K71l8?si=vAuxTf3OMzYa7OLu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/s6u3ESE4kMg?si=bc8LUSSMVXb3pGtZ&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/hh5516HCu4k?si=5GMEeDZ_gBHFJK0i&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Ex81dYhX8FI?si=cevws9c_XZRvJUNM&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/leEtTkR_OKE?si=eOnUs0h1V0XZlV_Y&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/nWyx81AfTos?si=AvMUK_qtTY3AZeq6" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/wUbsMNkkpLk?si=sQi9auOabwGGJdif" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/FiVuO6Y5UcU?si=H_zDCl3k_YPZWdgU&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/wFj808u2HWU?si=LhhnwtHFJTbDd1Hz&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/qca__Qgjf1Y?si=D3QoC_THyNq1Tobf&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/4ZDm5EbiFI8?si=8NpQ2a_UAKSFW9j1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/6A0yJetx7hg?si=8ZiirLUBSFq_NNxG" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/gjr-QAdsq4o?si=6x55ZDRioY_CyVZL&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/xZyGP55NkAo?si=gx_uCYNdTmNugUop" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/DMrxbUgoZTg?si=IQER0HKK1FE6bf2E" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/MSSEoBnxPtM?si=r5d2kWtONjHbWf0w&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-cqo-oailwk?si=yh977tkDtEt_cle0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/scs5XcsZuc8?si=jOPbgwy0P-0qWeQz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Ja6ZlIDONac?si=Vg55qjjgge4WA8eK&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/TeFo51Q_Nsc?si=LpIE1CYbN7N0e7He" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/lJoozxC0Rns?si=YPLIRQLrrg8J6wnZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/LXkCrxn3caQ?si=IMMWUdq3W9txtm8B" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/SqO-VUEak2M?si=yQh_sJU0qqjsdmlw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/b9FJ4hIK3pI?si=9auJRLdRYifV6rg_&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-0N2xTi69t8?si=gN9p4MOoVdgIKxaq&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/CjAVezAggkI?si=_LrPszihHlwmBPKb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/qf_FTh3QyYs?si=vAlffNIQgYRWeK3Z&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1108,7 +1106,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1116,20 +1114,20 @@
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1137,363 +1135,33 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1689,254 +1357,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,19 +1372,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1971,12 +1397,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1992,12 +1418,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2006,90 +1432,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2100,7 +1596,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2128,154 +1624,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2473,39 +1855,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="P99" sqref="P99"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="5" max="5" width="21.752380952381" customWidth="1"/>
-    <col min="6" max="6" width="18.5047619047619" customWidth="1"/>
-    <col min="7" max="7" width="16.3809523809524" customWidth="1"/>
-    <col min="8" max="8" width="16.1333333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.5047619047619" customWidth="1"/>
-    <col min="10" max="10" width="16.8761904761905" customWidth="1"/>
-    <col min="13" max="13" width="12.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="36.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="32.4285714285714" customWidth="1"/>
-    <col min="16" max="16" width="39.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.44140625" customWidth="1"/>
+    <col min="16" max="16" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,12 +1934,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -2596,15 +1978,15 @@
         <v>19</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -2637,21 +2019,21 @@
         <v>8</v>
       </c>
       <c r="M3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:15">
+      <c r="O3" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>17</v>
@@ -2684,24 +2066,24 @@
         <v>8</v>
       </c>
       <c r="M4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8">
         <v>10</v>
@@ -2731,18 +2113,18 @@
         <v>8</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2778,24 +2160,24 @@
         <v>8</v>
       </c>
       <c r="M6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="8">
         <v>45</v>
@@ -2825,24 +2207,24 @@
         <v>8</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8">
         <v>45</v>
@@ -2872,24 +2254,24 @@
         <v>8</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8">
         <v>45</v>
@@ -2919,24 +2301,24 @@
         <v>8</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8">
         <v>45</v>
@@ -2966,24 +2348,24 @@
         <v>8</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:15">
+        <v>46</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8">
         <v>45</v>
@@ -3013,24 +2395,24 @@
         <v>8</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8">
         <v>45</v>
@@ -3060,24 +2442,24 @@
         <v>8</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:15">
+        <v>52</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8">
         <v>45</v>
@@ -3107,24 +2489,24 @@
         <v>8</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:15">
+        <v>55</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
@@ -3154,24 +2536,24 @@
         <v>8</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D15" s="16">
         <v>5</v>
@@ -3183,13 +2565,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H15" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J15" s="8">
         <v>3</v>
@@ -3201,24 +2583,24 @@
         <v>8</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D16" s="8">
         <v>10</v>
@@ -3248,24 +2630,24 @@
         <v>8</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
+        <v>64</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
@@ -3295,18 +2677,18 @@
         <v>8</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
+        <v>67</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -3342,21 +2724,21 @@
         <v>8</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>17</v>
@@ -3389,21 +2771,21 @@
         <v>8</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
+        <v>72</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>17</v>
@@ -3436,18 +2818,18 @@
         <v>8</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:15">
+        <v>75</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -3483,21 +2865,21 @@
         <v>8</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>17</v>
@@ -3530,21 +2912,21 @@
         <v>8</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="20" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>17</v>
@@ -3577,21 +2959,21 @@
         <v>8</v>
       </c>
       <c r="M23" s="28" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:15">
+        <v>82</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>17</v>
@@ -3624,21 +3006,21 @@
         <v>8</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
-      </c>
-      <c r="O24" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:15">
+        <v>85</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3671,24 +3053,24 @@
         <v>8</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
-      </c>
-      <c r="O25" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:15">
+        <v>87</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
@@ -3718,24 +3100,24 @@
         <v>8</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
-        <v>114</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:15">
+        <v>90</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D27" s="8">
         <v>10</v>
@@ -3765,21 +3147,21 @@
         <v>8</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:15">
+        <v>92</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3812,21 +3194,21 @@
         <v>8</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:15">
+        <v>95</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="9" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>17</v>
@@ -3859,24 +3241,24 @@
         <v>8</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="N29" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:15">
+        <v>98</v>
+      </c>
+      <c r="O29" s="32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="9" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D30" s="8">
         <v>3</v>
@@ -3906,24 +3288,24 @@
         <v>8</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>129</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:15">
+        <v>101</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="9" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D31" s="8">
         <v>3</v>
@@ -3953,24 +3335,24 @@
         <v>8</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
-      </c>
-      <c r="O31" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:15">
+        <v>104</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D32" s="8">
         <v>3</v>
@@ -4000,24 +3382,24 @@
         <v>8</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="N32" t="s">
-        <v>137</v>
-      </c>
-      <c r="O32" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:15">
+        <v>107</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="9" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D33" s="16">
         <v>5</v>
@@ -4047,24 +3429,24 @@
         <v>8</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="N33" t="s">
-        <v>140</v>
-      </c>
-      <c r="O33" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:15">
+        <v>109</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="9" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D34" s="8">
         <v>3</v>
@@ -4094,24 +3476,24 @@
         <v>8</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="N34" t="s">
-        <v>144</v>
-      </c>
-      <c r="O34" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:15">
+        <v>112</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="9" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D35" s="8">
         <v>3</v>
@@ -4141,24 +3523,24 @@
         <v>8</v>
       </c>
       <c r="M35" s="28" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="N35" t="s">
-        <v>148</v>
-      </c>
-      <c r="O35" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:15">
+        <v>115</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="8">
         <v>3</v>
@@ -4188,24 +3570,24 @@
         <v>8</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="N36" t="s">
-        <v>152</v>
-      </c>
-      <c r="O36" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:15">
+        <v>118</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="16">
         <v>5</v>
@@ -4235,24 +3617,24 @@
         <v>8</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="N37" t="s">
-        <v>155</v>
-      </c>
-      <c r="O37" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:15">
+        <v>120</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D38" s="8">
         <v>10</v>
@@ -4282,24 +3664,24 @@
         <v>8</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="N38" t="s">
-        <v>158</v>
-      </c>
-      <c r="O38" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:15">
+        <v>122</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="9" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -4329,24 +3711,24 @@
         <v>8</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="N39" t="s">
-        <v>162</v>
-      </c>
-      <c r="O39" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:15">
+        <v>125</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="9" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8">
         <v>3</v>
@@ -4376,24 +3758,24 @@
         <v>8</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="N40" t="s">
-        <v>167</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:15">
+        <v>129</v>
+      </c>
+      <c r="O40" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="21" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8">
         <v>10</v>
@@ -4423,24 +3805,24 @@
         <v>8</v>
       </c>
       <c r="M41" s="28" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s">
-        <v>170</v>
-      </c>
-      <c r="O41" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:15">
+        <v>131</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" s="8">
         <v>3</v>
@@ -4470,24 +3852,24 @@
         <v>8</v>
       </c>
       <c r="M42" s="28" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="N42" t="s">
-        <v>174</v>
-      </c>
-      <c r="O42" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:15">
+        <v>134</v>
+      </c>
+      <c r="O42" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8">
         <v>3</v>
@@ -4517,24 +3899,24 @@
         <v>8</v>
       </c>
       <c r="M43" s="28" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="N43" t="s">
-        <v>178</v>
-      </c>
-      <c r="O43" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:15">
+        <v>137</v>
+      </c>
+      <c r="O43" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="9" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D44" s="16">
         <v>5</v>
@@ -4564,24 +3946,24 @@
         <v>8</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="N44" t="s">
-        <v>180</v>
-      </c>
-      <c r="O44" s="29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:15">
+        <v>139</v>
+      </c>
+      <c r="O44" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8">
         <v>10</v>
@@ -4611,24 +3993,24 @@
         <v>8</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="N45" t="s">
-        <v>183</v>
-      </c>
-      <c r="O45" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:15">
+        <v>141</v>
+      </c>
+      <c r="O45" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="9" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="8">
         <v>3</v>
@@ -4658,24 +4040,24 @@
         <v>8</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="N46" t="s">
-        <v>187</v>
-      </c>
-      <c r="O46" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:15">
+        <v>144</v>
+      </c>
+      <c r="O46" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8">
         <v>3</v>
@@ -4705,24 +4087,24 @@
         <v>8</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="N47" t="s">
-        <v>192</v>
-      </c>
-      <c r="O47" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:15">
+        <v>148</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8">
         <v>3</v>
@@ -4752,24 +4134,24 @@
         <v>8</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="N48" t="s">
-        <v>196</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="O48" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="9" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8">
         <v>3</v>
@@ -4799,24 +4181,24 @@
         <v>8</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="N49" t="s">
-        <v>200</v>
-      </c>
-      <c r="O49" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:15">
+        <v>154</v>
+      </c>
+      <c r="O49" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="9" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
@@ -4846,24 +4228,24 @@
         <v>8</v>
       </c>
       <c r="M50" s="28" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="N50" t="s">
-        <v>203</v>
-      </c>
-      <c r="O50" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:15">
+        <v>156</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="9" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8">
         <v>10</v>
@@ -4893,24 +4275,24 @@
         <v>8</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s">
-        <v>206</v>
-      </c>
-      <c r="O51" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:15">
+        <v>158</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="9" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8">
         <v>3</v>
@@ -4940,24 +4322,24 @@
         <v>8</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="N52" t="s">
-        <v>210</v>
-      </c>
-      <c r="O52" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:15">
+        <v>161</v>
+      </c>
+      <c r="O52" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="9" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D53" s="8">
         <v>3</v>
@@ -4987,24 +4369,24 @@
         <v>8</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="N53" t="s">
-        <v>214</v>
-      </c>
-      <c r="O53" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:15">
+        <v>164</v>
+      </c>
+      <c r="O53" s="32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="9" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D54" s="8">
         <v>5</v>
@@ -5034,24 +4416,24 @@
         <v>8</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="N54" t="s">
-        <v>218</v>
-      </c>
-      <c r="O54" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:15">
+        <v>167</v>
+      </c>
+      <c r="O54" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="9" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" s="16">
         <v>5</v>
@@ -5063,13 +4445,13 @@
         <v>10</v>
       </c>
       <c r="G55" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H55" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I55" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J55" s="8">
         <v>3</v>
@@ -5081,24 +4463,24 @@
         <v>8</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="N55" t="s">
-        <v>222</v>
-      </c>
-      <c r="O55" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:15">
+        <v>170</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="9" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" s="8">
         <v>10</v>
@@ -5128,24 +4510,24 @@
         <v>8</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="N56" t="s">
-        <v>225</v>
-      </c>
-      <c r="O56" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:15">
+        <v>172</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="9" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
@@ -5175,24 +4557,24 @@
         <v>8</v>
       </c>
       <c r="M57" s="28" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="N57" t="s">
-        <v>228</v>
-      </c>
-      <c r="O57" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:15">
+        <v>174</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="9" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" s="8">
         <v>3</v>
@@ -5222,24 +4604,24 @@
         <v>8</v>
       </c>
       <c r="M58" s="28" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="N58" t="s">
-        <v>231</v>
-      </c>
-      <c r="O58" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:15">
+        <v>176</v>
+      </c>
+      <c r="O58" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="9" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="8">
         <v>10</v>
@@ -5269,21 +4651,21 @@
         <v>8</v>
       </c>
       <c r="M59" s="28" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="N59" t="s">
-        <v>234</v>
-      </c>
-      <c r="O59" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:15">
+        <v>178</v>
+      </c>
+      <c r="O59" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="9" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>17</v>
@@ -5316,21 +4698,21 @@
         <v>8</v>
       </c>
       <c r="M60" s="28" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="N60" t="s">
-        <v>238</v>
-      </c>
-      <c r="O60" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:15">
+        <v>181</v>
+      </c>
+      <c r="O60" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="21" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>17</v>
@@ -5363,24 +4745,24 @@
         <v>8</v>
       </c>
       <c r="M61" s="28" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="N61" t="s">
-        <v>241</v>
-      </c>
-      <c r="O61" s="29" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:15">
+        <v>183</v>
+      </c>
+      <c r="O61" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="9" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D62" s="16">
         <v>5</v>
@@ -5410,24 +4792,24 @@
         <v>8</v>
       </c>
       <c r="M62" s="28" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="N62" t="s">
-        <v>245</v>
-      </c>
-      <c r="O62" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:15">
+        <v>186</v>
+      </c>
+      <c r="O62" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="9" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D63" s="16">
         <v>5</v>
@@ -5457,24 +4839,24 @@
         <v>8</v>
       </c>
       <c r="M63" s="28" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="N63" t="s">
-        <v>249</v>
-      </c>
-      <c r="O63" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:15">
+        <v>189</v>
+      </c>
+      <c r="O63" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="21" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D64" s="8">
         <v>10</v>
@@ -5504,24 +4886,24 @@
         <v>8</v>
       </c>
       <c r="M64" s="28" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="N64" t="s">
-        <v>252</v>
-      </c>
-      <c r="O64" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:15">
+        <v>191</v>
+      </c>
+      <c r="O64" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="9" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D65" s="8">
         <v>10</v>
@@ -5551,21 +4933,21 @@
         <v>8</v>
       </c>
       <c r="M65" s="28" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="N65" t="s">
-        <v>256</v>
-      </c>
-      <c r="O65" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:15">
+        <v>194</v>
+      </c>
+      <c r="O65" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>17</v>
@@ -5598,24 +4980,24 @@
         <v>8</v>
       </c>
       <c r="M66" s="28" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="N66" t="s">
-        <v>260</v>
-      </c>
-      <c r="O66" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:15">
+        <v>197</v>
+      </c>
+      <c r="O66" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="9" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D67" s="8">
         <v>3</v>
@@ -5645,24 +5027,24 @@
         <v>8</v>
       </c>
       <c r="M67" s="28" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="N67" t="s">
-        <v>264</v>
-      </c>
-      <c r="O67" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="O67" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="9" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D68" s="16">
         <v>5</v>
@@ -5692,24 +5074,24 @@
         <v>8</v>
       </c>
       <c r="M68" s="28" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="N68" t="s">
-        <v>267</v>
-      </c>
-      <c r="O68" s="29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:15">
+        <v>202</v>
+      </c>
+      <c r="O68" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="9" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D69" s="8">
         <v>10</v>
@@ -5739,24 +5121,24 @@
         <v>8</v>
       </c>
       <c r="M69" s="28" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="N69" t="s">
-        <v>270</v>
-      </c>
-      <c r="O69" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:15">
+        <v>204</v>
+      </c>
+      <c r="O69" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="9" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
@@ -5786,24 +5168,24 @@
         <v>8</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="N70" t="s">
-        <v>273</v>
-      </c>
-      <c r="O70" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:15">
+        <v>206</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="9" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="B71" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D71" s="8">
         <v>5</v>
@@ -5833,24 +5215,24 @@
         <v>8</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="N71" t="s">
-        <v>277</v>
-      </c>
-      <c r="O71" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="O71" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="9" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="8">
         <v>10</v>
@@ -5880,24 +5262,24 @@
         <v>8</v>
       </c>
       <c r="M72" s="28" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="N72" t="s">
-        <v>281</v>
-      </c>
-      <c r="O72" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:15">
+        <v>212</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="9" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="B73" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D73" s="8">
         <v>10</v>
@@ -5927,24 +5309,24 @@
         <v>8</v>
       </c>
       <c r="M73" s="28" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="N73" t="s">
-        <v>285</v>
-      </c>
-      <c r="O73" s="29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:15">
+        <v>215</v>
+      </c>
+      <c r="O73" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="9" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D74" s="8">
         <v>2</v>
@@ -5974,21 +5356,21 @@
         <v>8</v>
       </c>
       <c r="M74" s="28" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="N74" t="s">
-        <v>289</v>
-      </c>
-      <c r="O74" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:15">
+        <v>218</v>
+      </c>
+      <c r="O74" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="9" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C75" s="30" t="s">
         <v>17</v>
@@ -6021,24 +5403,24 @@
         <v>8</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="N75" t="s">
-        <v>293</v>
-      </c>
-      <c r="O75" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:15">
+        <v>221</v>
+      </c>
+      <c r="O75" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="9" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
@@ -6068,21 +5450,21 @@
         <v>8</v>
       </c>
       <c r="M76" s="28" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="N76" t="s">
-        <v>297</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:15">
+        <v>224</v>
+      </c>
+      <c r="O76" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="9" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>17</v>
@@ -6115,21 +5497,21 @@
         <v>8</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="N77" t="s">
-        <v>301</v>
-      </c>
-      <c r="O77" s="29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:15">
+        <v>227</v>
+      </c>
+      <c r="O77" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="9" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>17</v>
@@ -6162,21 +5544,21 @@
         <v>8</v>
       </c>
       <c r="M78" s="28" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="N78" t="s">
-        <v>305</v>
-      </c>
-      <c r="O78" s="29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:15">
+        <v>230</v>
+      </c>
+      <c r="O78" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="9" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>17</v>
@@ -6209,24 +5591,24 @@
         <v>8</v>
       </c>
       <c r="M79" s="28" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="N79" t="s">
-        <v>309</v>
-      </c>
-      <c r="O79" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:15">
+        <v>233</v>
+      </c>
+      <c r="O79" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="9" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="B80" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="8">
         <v>10</v>
@@ -6256,24 +5638,24 @@
         <v>8</v>
       </c>
       <c r="M80" s="28" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="N80" t="s">
-        <v>313</v>
-      </c>
-      <c r="O80" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:15">
+        <v>236</v>
+      </c>
+      <c r="O80" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="9" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D81" s="8">
         <v>10</v>
@@ -6303,24 +5685,24 @@
         <v>8</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="N81" t="s">
-        <v>317</v>
-      </c>
-      <c r="O81" s="29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:15">
+        <v>239</v>
+      </c>
+      <c r="O81" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="9" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D82" s="8">
         <v>10</v>
@@ -6350,24 +5732,24 @@
         <v>8</v>
       </c>
       <c r="M82" s="28" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="N82" t="s">
-        <v>321</v>
-      </c>
-      <c r="O82" s="29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:15">
+        <v>242</v>
+      </c>
+      <c r="O82" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="9" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D83" s="16">
         <v>10</v>
@@ -6397,21 +5779,21 @@
         <v>8</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="N83" t="s">
-        <v>324</v>
-      </c>
-      <c r="O83" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:15">
+        <v>244</v>
+      </c>
+      <c r="O83" s="32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="9" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C84" s="30" t="s">
         <v>17</v>
@@ -6444,24 +5826,24 @@
         <v>8</v>
       </c>
       <c r="M84" s="28" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="N84" t="s">
-        <v>328</v>
-      </c>
-      <c r="O84" s="29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:15">
+        <v>247</v>
+      </c>
+      <c r="O84" s="32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="9" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D85" s="8">
         <v>10</v>
@@ -6491,24 +5873,24 @@
         <v>8</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="N85" t="s">
-        <v>332</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:15">
+        <v>250</v>
+      </c>
+      <c r="O85" s="32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="9" t="s">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D86" s="8">
         <v>10</v>
@@ -6538,24 +5920,24 @@
         <v>8</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="N86" t="s">
-        <v>336</v>
-      </c>
-      <c r="O86" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:15">
+        <v>253</v>
+      </c>
+      <c r="O86" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="9" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D87" s="8">
         <v>10</v>
@@ -6585,24 +5967,24 @@
         <v>8</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="N87" t="s">
-        <v>340</v>
-      </c>
-      <c r="O87" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:15">
+        <v>256</v>
+      </c>
+      <c r="O87" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="9" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D88" s="8">
         <v>5</v>
@@ -6632,21 +6014,21 @@
         <v>8</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="N88" t="s">
-        <v>344</v>
-      </c>
-      <c r="O88" s="29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:15">
+        <v>259</v>
+      </c>
+      <c r="O88" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" s="31" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>17</v>
@@ -6679,21 +6061,21 @@
         <v>8</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="N89" t="s">
-        <v>93</v>
-      </c>
-      <c r="O89" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:15">
+        <v>75</v>
+      </c>
+      <c r="O89" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="9" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>17</v>
@@ -6726,17 +6108,16 @@
         <v>8</v>
       </c>
       <c r="M90" s="28" t="s">
-        <v>349</v>
+        <v>263</v>
       </c>
       <c r="N90" t="s">
-        <v>350</v>
-      </c>
-      <c r="O90" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O90" s="32" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/demo/src/main/resources/spreadsheet/Workout Spreadsheet.xlsx
+++ b/demo/src/main/resources/spreadsheet/Workout Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keonv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D8E89-5C5C-4696-BB95-1AE3CFA09D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D030BA-1D2C-4F96-8BD1-E3FFDB98EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,6 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -828,265 +817,265 @@
     <t>smith_machine_close_grip_bench_press.jpg</t>
   </si>
   <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/CjHIKDQ4RQo?si=Nl6wuK6-gTj95SLa" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/O5viuEPDXKY?si=cSxtgvqbGxYsbXY7&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/AduT4Eq-iP0?si=5QgVZZjgmXXFKdlX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/p5dCqF7wWUw?si=Nwl1mW5y0PJX0mVs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/sqNwDkUU_Ps?si=ffMH9200TlKy9X0e" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/NwwDBARCGgo?si=GZvpvwFMZUwBBC4o" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/HxsFneJFM2c?si=dnBxdpkz3fTVilkU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/yISC2qwdh9I?si=Gv04SZL6mtskKWsO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/XugMoMDxyhM?si=bKcqHyNzFUsOHZjz&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/6_eLpWiNijE?si=3fSWhUhdacTJccyt" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/r58nxtqD_zQ?si=vd5gszhObAJVGBaR&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/KC-ZSfOmXgE?si=M9sBWmUvKlb0HQKU&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/9Gf-Ourup_k?si=WGxFVp_UH2LpfQoC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/DMo3HJoawrU?si=F6EwklDWr_ONIrrg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/3QcJggd_L24?si=1USxw-mpDTmiqWhe&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/l5qelXL5nfs?si=9o6AXZIgh94U9rRh&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/eGjt4lk6g34?si=9ToRIovqSG154x3m" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Nhvz9EzdJ4U?si=_aDy1DSu928Gq2f2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/4mfLHnFL0Uw?si=PAvgSkAmyw7vakXf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/TnhIyp4kmO8?si=0uMxho43AHhjqXzX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/aI2hGzsAMXs?si=NipUUIO78sUzGaL5" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/OLqZDUUD2b0?si=sHuJcbyAbI-NRGAZ&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/z-kOn7flIZg?si=T6X66IraESeO__8V" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Z5FA9aq3L6A?si=Cc53pYHfvoolsi3A" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/MtXdEcW3Eog?si=53BHIkx_-yjPhqZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/GNlopToAZyg?si=DI0GDl97boWWVAHN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/9wxRhONFsRA?si=zteT7mBh6I4NYSXr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/m_UlDFNX4mk?si=AD50-IPsMZefHJ2v" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/hf7jnF45N_I?si=yR1gX7QSlGEcegmK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/zkP0MsTcIVU?si=fdc4vxkfWo8tV5Os" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/SX1FE0URdv8?si=2y0VFuqw2Qn822lI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/larn3Asl6oM?si=JkgOKUuFEWn-oqps" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/B4RznoFvTl4?si=1ofOg0sTJTqmxfqv" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/llD6MImgqe8?si=Qufg_OplNBKVu9Q3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/9gglI77Kzq8?si=I2TrCEkoe4zoEDVq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/NcDtORTfVNQ?si=p_hZabDe2QDEbOEN&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/qY7Yo0x5mhE?si=tYMu8SfmEsYsBTlR&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/UFStLR88gOk?si=mYlNRAKsMnEHhdzL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/plb5jEO4Unw?si=toLkXql3nBT_X6_Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/NBR6tozmx2I?si=ccWPZioBHxZbpxHD&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/DxUNi119Qzs?si=CosuKkAF90KR3bv3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/yPqv3ejnZvc?si=-Y7Eczr6k7O4MMfZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/p6KK6yHxd4k?si=_mEghTdVvpaQDV-r" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/vLuhN_glFZ8?si=mYolItied7OfsFrI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/FShbaqrGGu4?si=tJZunZsRLOPhWYs3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/0V-8kqnPPeM?si=hHCIrEwtG6FnCavk&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/yHzVcjDQKQU?si=LdtlPKxPjIEj0YiA&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/wsbcev7aYeU?si=kVqwaRd826S2wIgA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/dL9ZzqtQI5c?si=A9Q81o6ik034YN6L" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/iXu2QK049rU?si=NtJLzj_YLpYPk0EE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/JGeRYIZdojU?si=maAz1BsN9hpw3SL0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/gcGNypjIQDo?si=pKG6e4kD5O3nw1ji&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/tAJucO55-bQ?si=WyAeUzYhX4uHS0HU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-eO_VydErV0?si=Epzsslcfk6pyfmSV&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/zBV3ceGyAxw?si=ETmktI93Xs0IjutC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/kVWtlBl5PvU?si=hgPb3uj_R1sFhrxR&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/QJ4T1pUJ_zw?si=VhSRMkAqqHTI4moj&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-5MmFTKLC-0?si=bvM5E-fc2nXCawJj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/oYbWXyEdQkQ?si=WwJoVuxkv51_lIZ-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/N5x5M1x1Gd0?si=qDKEbauv_AEUtelO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/aweBS7K71l8?si=vAuxTf3OMzYa7OLu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/s6u3ESE4kMg?si=bc8LUSSMVXb3pGtZ&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/hh5516HCu4k?si=5GMEeDZ_gBHFJK0i&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Ex81dYhX8FI?si=cevws9c_XZRvJUNM&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/leEtTkR_OKE?si=eOnUs0h1V0XZlV_Y&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/nWyx81AfTos?si=AvMUK_qtTY3AZeq6" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/wUbsMNkkpLk?si=sQi9auOabwGGJdif" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/FiVuO6Y5UcU?si=H_zDCl3k_YPZWdgU&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/wFj808u2HWU?si=LhhnwtHFJTbDd1Hz&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/qca__Qgjf1Y?si=D3QoC_THyNq1Tobf&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/4ZDm5EbiFI8?si=8NpQ2a_UAKSFW9j1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/6A0yJetx7hg?si=8ZiirLUBSFq_NNxG" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/gjr-QAdsq4o?si=6x55ZDRioY_CyVZL&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/xZyGP55NkAo?si=gx_uCYNdTmNugUop" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/DMrxbUgoZTg?si=IQER0HKK1FE6bf2E" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/MSSEoBnxPtM?si=r5d2kWtONjHbWf0w&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-cqo-oailwk?si=yh977tkDtEt_cle0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/scs5XcsZuc8?si=jOPbgwy0P-0qWeQz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/Ja6ZlIDONac?si=Vg55qjjgge4WA8eK&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/TeFo51Q_Nsc?si=LpIE1CYbN7N0e7He" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/lJoozxC0Rns?si=YPLIRQLrrg8J6wnZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/LXkCrxn3caQ?si=IMMWUdq3W9txtm8B" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/SqO-VUEak2M?si=yQh_sJU0qqjsdmlw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/b9FJ4hIK3pI?si=9auJRLdRYifV6rg_&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/-0N2xTi69t8?si=gN9p4MOoVdgIKxaq&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/CjAVezAggkI?si=_LrPszihHlwmBPKb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="100%" height="100%" src="https://www.youtube.com/embed/qf_FTh3QyYs?si=vAlffNIQgYRWeK3Z&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/CjHIKDQ4RQo?si=Nl6wuK6-gTj95SLa" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/AduT4Eq-iP0?si=5QgVZZjgmXXFKdlX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/O5viuEPDXKY?si=cSxtgvqbGxYsbXY7&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/p5dCqF7wWUw?si=Nwl1mW5y0PJX0mVs" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/sqNwDkUU_Ps?si=ffMH9200TlKy9X0e" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/HxsFneJFM2c?si=dnBxdpkz3fTVilkU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/NwwDBARCGgo?si=GZvpvwFMZUwBBC4o" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/yISC2qwdh9I?si=Gv04SZL6mtskKWsO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/XugMoMDxyhM?si=bKcqHyNzFUsOHZjz&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/6_eLpWiNijE?si=3fSWhUhdacTJccyt" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/r58nxtqD_zQ?si=vd5gszhObAJVGBaR&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/KC-ZSfOmXgE?si=M9sBWmUvKlb0HQKU&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/DMo3HJoawrU?si=F6EwklDWr_ONIrrg" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/9Gf-Ourup_k?si=WGxFVp_UH2LpfQoC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/3QcJggd_L24?si=1USxw-mpDTmiqWhe&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/l5qelXL5nfs?si=9o6AXZIgh94U9rRh&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/eGjt4lk6g34?si=9ToRIovqSG154x3m" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/Nhvz9EzdJ4U?si=_aDy1DSu928Gq2f2" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/4mfLHnFL0Uw?si=PAvgSkAmyw7vakXf" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/TnhIyp4kmO8?si=0uMxho43AHhjqXzX" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/aI2hGzsAMXs?si=NipUUIO78sUzGaL5" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/OLqZDUUD2b0?si=sHuJcbyAbI-NRGAZ&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/z-kOn7flIZg?si=T6X66IraESeO__8V" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/Z5FA9aq3L6A?si=Cc53pYHfvoolsi3A" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/MtXdEcW3Eog?si=53BHIkx_-yjPhqZE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/GNlopToAZyg?si=DI0GDl97boWWVAHN" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/9wxRhONFsRA?si=zteT7mBh6I4NYSXr" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/m_UlDFNX4mk?si=AD50-IPsMZefHJ2v" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/hf7jnF45N_I?si=yR1gX7QSlGEcegmK" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/zkP0MsTcIVU?si=fdc4vxkfWo8tV5Os" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/SX1FE0URdv8?si=2y0VFuqw2Qn822lI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/larn3Asl6oM?si=JkgOKUuFEWn-oqps" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/B4RznoFvTl4?si=1ofOg0sTJTqmxfqv" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/llD6MImgqe8?si=Qufg_OplNBKVu9Q3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/9gglI77Kzq8?si=I2TrCEkoe4zoEDVq" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/NcDtORTfVNQ?si=p_hZabDe2QDEbOEN&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/qY7Yo0x5mhE?si=tYMu8SfmEsYsBTlR&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/UFStLR88gOk?si=mYlNRAKsMnEHhdzL" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/plb5jEO4Unw?si=toLkXql3nBT_X6_Y" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/NBR6tozmx2I?si=ccWPZioBHxZbpxHD&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/DxUNi119Qzs?si=CosuKkAF90KR3bv3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/yPqv3ejnZvc?si=-Y7Eczr6k7O4MMfZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/p6KK6yHxd4k?si=_mEghTdVvpaQDV-r" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/vLuhN_glFZ8?si=mYolItied7OfsFrI" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/FShbaqrGGu4?si=tJZunZsRLOPhWYs3" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/0V-8kqnPPeM?si=hHCIrEwtG6FnCavk&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/wsbcev7aYeU?si=kVqwaRd826S2wIgA" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/yHzVcjDQKQU?si=LdtlPKxPjIEj0YiA&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/gcGNypjIQDo?si=pKG6e4kD5O3nw1ji&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/dL9ZzqtQI5c?si=A9Q81o6ik034YN6L" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/iXu2QK049rU?si=NtJLzj_YLpYPk0EE" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/JGeRYIZdojU?si=maAz1BsN9hpw3SL0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/tAJucO55-bQ?si=WyAeUzYhX4uHS0HU" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/-eO_VydErV0?si=Epzsslcfk6pyfmSV&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/zBV3ceGyAxw?si=ETmktI93Xs0IjutC" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/kVWtlBl5PvU?si=hgPb3uj_R1sFhrxR&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/QJ4T1pUJ_zw?si=VhSRMkAqqHTI4moj&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/-5MmFTKLC-0?si=bvM5E-fc2nXCawJj" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/oYbWXyEdQkQ?si=WwJoVuxkv51_lIZ-" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/N5x5M1x1Gd0?si=qDKEbauv_AEUtelO" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/aweBS7K71l8?si=vAuxTf3OMzYa7OLu" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/s6u3ESE4kMg?si=bc8LUSSMVXb3pGtZ&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/hh5516HCu4k?si=5GMEeDZ_gBHFJK0i&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/Ex81dYhX8FI?si=cevws9c_XZRvJUNM&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/wUbsMNkkpLk?si=sQi9auOabwGGJdif" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/nWyx81AfTos?si=AvMUK_qtTY3AZeq6" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/leEtTkR_OKE?si=eOnUs0h1V0XZlV_Y&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/FiVuO6Y5UcU?si=H_zDCl3k_YPZWdgU&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/wFj808u2HWU?si=LhhnwtHFJTbDd1Hz&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/qca__Qgjf1Y?si=D3QoC_THyNq1Tobf&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/4ZDm5EbiFI8?si=8NpQ2a_UAKSFW9j1" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/6A0yJetx7hg?si=8ZiirLUBSFq_NNxG" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/gjr-QAdsq4o?si=6x55ZDRioY_CyVZL&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/xZyGP55NkAo?si=gx_uCYNdTmNugUop" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/DMrxbUgoZTg?si=IQER0HKK1FE6bf2E" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/MSSEoBnxPtM?si=r5d2kWtONjHbWf0w&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/-cqo-oailwk?si=yh977tkDtEt_cle0" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/scs5XcsZuc8?si=jOPbgwy0P-0qWeQz" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/Ja6ZlIDONac?si=Vg55qjjgge4WA8eK&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/TeFo51Q_Nsc?si=LpIE1CYbN7N0e7He" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/lJoozxC0Rns?si=YPLIRQLrrg8J6wnZ" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/LXkCrxn3caQ?si=IMMWUdq3W9txtm8B" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/SqO-VUEak2M?si=yQh_sJU0qqjsdmlw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/b9FJ4hIK3pI?si=9auJRLdRYifV6rg_&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/-0N2xTi69t8?si=gN9p4MOoVdgIKxaq&amp;amp;start=7" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/CjAVezAggkI?si=_LrPszihHlwmBPKb" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/qf_FTh3QyYs?si=vAlffNIQgYRWeK3Z&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -1866,9 +1855,9 @@
   </sheetPr>
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O90" sqref="O90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2025,7 +2014,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -2072,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -2213,7 +2202,7 @@
         <v>37</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -2260,7 +2249,7 @@
         <v>40</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -2542,7 +2531,7 @@
         <v>59</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -2589,7 +2578,7 @@
         <v>62</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -4187,7 +4176,7 @@
         <v>154</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -4234,7 +4223,7 @@
         <v>156</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -4281,7 +4270,7 @@
         <v>158</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -4328,7 +4317,7 @@
         <v>161</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -4375,7 +4364,7 @@
         <v>164</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -4422,7 +4411,7 @@
         <v>167</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -5033,7 +5022,7 @@
         <v>200</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -5127,7 +5116,7 @@
         <v>204</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1" thickBot="1">

--- a/demo/src/main/resources/spreadsheet/Workout Spreadsheet.xlsx
+++ b/demo/src/main/resources/spreadsheet/Workout Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keonv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D030BA-1D2C-4F96-8BD1-E3FFDB98EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9B54BE-66AF-43CA-893D-078EB1A31509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="350">
   <si>
     <t>Exercises</t>
   </si>
@@ -76,9 +76,6 @@
     <t>push</t>
   </si>
   <si>
-    <t>A classic chest exercise where you press a barbell or dumbbells from chest level upwards, targeting the chest, shoulders, and triceps.</t>
-  </si>
-  <si>
     <t>bench_press.jpg</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>Concentration Curl</t>
   </si>
   <si>
-    <t>A back exercise where you row a barbell upwards while bent over, targeting the latissimus dorsi and upper back muscles.</t>
-  </si>
-  <si>
     <t>dumbbell_concentration_curl.jpg</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>Step-ups</t>
   </si>
   <si>
-    <t>A chest press performed on a Smith Machine, targeting the chest, shoulders, and triceps.</t>
-  </si>
-  <si>
     <t>dumbbell_stepups.jpg</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
     <t>Plank Row</t>
   </si>
   <si>
-    <t>A variation of the deadlift performed on a Smith Machine, focusing on the hamstrings and glutes.</t>
-  </si>
-  <si>
     <t>dumbbell_plank_row.jpg</t>
   </si>
   <si>
@@ -562,9 +550,6 @@
     <t>Overhead Press</t>
   </si>
   <si>
-    <t>A deadlift variation using kettlebells, targeting the hamstrings, glutes, and lower back.</t>
-  </si>
-  <si>
     <t>barbell_overhead_press.jpg</t>
   </si>
   <si>
@@ -586,9 +571,6 @@
     <t>Hip Thrust</t>
   </si>
   <si>
-    <t>Explosive movements where you lift a kettlebell from the floor to overhead (snatch) or to shoulder height (clean), targeting the whole body.</t>
-  </si>
-  <si>
     <t>barbell_hip_thrust.jpg</t>
   </si>
   <si>
@@ -646,9 +628,6 @@
     <t>Assisted Pull Up</t>
   </si>
   <si>
-    <t>A bodyweight exercise using TRX suspension straps where you pull yourself upwards, targeting the back and biceps.</t>
-  </si>
-  <si>
     <t>assisted_chinup.jpg</t>
   </si>
   <si>
@@ -718,9 +697,6 @@
     <t>Push-ups</t>
   </si>
   <si>
-    <t>A chest isolation exercise performed on a machine where you bring your arms together, focusing on the pectoral muscles.</t>
-  </si>
-  <si>
     <t>medicineball_pushups.jpg</t>
   </si>
   <si>
@@ -796,9 +772,6 @@
     <t>Hip Adduction</t>
   </si>
   <si>
-    <t>A lunge variation using a cable machine, targeting the quadriceps, glutes, and hamstrings.</t>
-  </si>
-  <si>
     <t>hip_adduction.jpg</t>
   </si>
   <si>
@@ -1076,6 +1049,27 @@
   </si>
   <si>
     <t>&lt;iframe width="960" height="720" src="https://www.youtube.com/embed/qf_FTh3QyYs?si=vAlffNIQgYRWeK3Z&amp;amp;start=95" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>A shoulder exercise where you press weight from shoulder level upwards, targeting the deltoids and triceps.</t>
+  </si>
+  <si>
+    <t>A variation of the romanian deadlift performed on a Smith Machine, focusing on the hamstrings and glutes.</t>
+  </si>
+  <si>
+    <t>An explosive movements where you lift a kettlebell from the floor to overhead (snatch) or to shoulder height (clean), targeting the whole body.</t>
+  </si>
+  <si>
+    <t>A core stability exercise performed on a cable machine where you press the cable handle forward while resisting rotation, targeting the obliques and core.</t>
+  </si>
+  <si>
+    <t>A machine-based exercise that targets the inner thighs by squeezing the legs together.</t>
+  </si>
+  <si>
+    <t>A classic chest exercise where you press a barbell from chest level upwards, targeting the chest, shoulders, and triceps.</t>
+  </si>
+  <si>
+    <t>A bench press performed on a Smith Machine, targeting the chest, shoulders, and triceps.</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1422,6 +1416,7 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,21 +1851,21 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N103" sqref="N103"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="133.44140625" customWidth="1"/>
     <col min="14" max="14" width="36.6640625" customWidth="1"/>
     <col min="15" max="15" width="32.44140625" customWidth="1"/>
     <col min="16" max="16" width="39.44140625" customWidth="1"/>
@@ -1928,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -1960,14 +1955,14 @@
       <c r="L2" s="8">
         <v>8</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
       <c r="O2" s="29" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -1975,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -2007,14 +2002,14 @@
       <c r="L3" s="8">
         <v>8</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" s="32" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -2022,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>17</v>
@@ -2054,25 +2049,25 @@
       <c r="L4" s="8">
         <v>8</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="N4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
       <c r="O4" s="32" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8">
         <v>10</v>
@@ -2101,19 +2096,19 @@
       <c r="L5" s="8">
         <v>8</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
       <c r="O5" s="32" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2148,25 +2143,25 @@
       <c r="L6" s="8">
         <v>8</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
       <c r="O6" s="32" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="8">
         <v>45</v>
@@ -2195,25 +2190,25 @@
       <c r="L7" s="8">
         <v>8</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
       <c r="O7" s="32" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8">
         <v>45</v>
@@ -2242,25 +2237,25 @@
       <c r="L8" s="8">
         <v>8</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
         <v>39</v>
       </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
       <c r="O8" s="32" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8">
         <v>45</v>
@@ -2289,25 +2284,25 @@
       <c r="L9" s="8">
         <v>8</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
       <c r="O9" s="32" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8">
         <v>45</v>
@@ -2336,25 +2331,25 @@
       <c r="L10" s="8">
         <v>8</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
       <c r="O10" s="32" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8">
         <v>45</v>
@@ -2383,25 +2378,25 @@
       <c r="L11" s="8">
         <v>8</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
       <c r="O11" s="32" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8">
         <v>45</v>
@@ -2430,25 +2425,25 @@
       <c r="L12" s="8">
         <v>8</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" t="s">
         <v>51</v>
       </c>
-      <c r="N12" t="s">
-        <v>52</v>
-      </c>
       <c r="O12" s="32" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8">
         <v>45</v>
@@ -2477,25 +2472,25 @@
       <c r="L13" s="8">
         <v>8</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" t="s">
         <v>54</v>
       </c>
-      <c r="N13" t="s">
-        <v>55</v>
-      </c>
       <c r="O13" s="32" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
@@ -2524,25 +2519,25 @@
       <c r="L14" s="8">
         <v>8</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
         <v>58</v>
       </c>
-      <c r="N14" t="s">
-        <v>59</v>
-      </c>
       <c r="O14" s="32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="16">
         <v>5</v>
@@ -2572,24 +2567,24 @@
         <v>8</v>
       </c>
       <c r="M15" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="N15" t="s">
-        <v>62</v>
-      </c>
       <c r="O15" s="32" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="8">
         <v>10</v>
@@ -2618,25 +2613,25 @@
       <c r="L16" s="8">
         <v>8</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" t="s">
         <v>63</v>
       </c>
-      <c r="N16" t="s">
-        <v>64</v>
-      </c>
       <c r="O16" s="32" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
@@ -2665,19 +2660,19 @@
       <c r="L17" s="8">
         <v>8</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" t="s">
         <v>66</v>
       </c>
-      <c r="N17" t="s">
-        <v>67</v>
-      </c>
       <c r="O17" s="32" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -2712,22 +2707,22 @@
       <c r="L18" s="8">
         <v>8</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" t="s">
         <v>69</v>
       </c>
-      <c r="N18" t="s">
-        <v>70</v>
-      </c>
       <c r="O18" s="32" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>17</v>
@@ -2759,22 +2754,22 @@
       <c r="L19" s="8">
         <v>8</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
         <v>71</v>
       </c>
-      <c r="N19" t="s">
-        <v>72</v>
-      </c>
       <c r="O19" s="32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>17</v>
@@ -2806,19 +2801,19 @@
       <c r="L20" s="8">
         <v>8</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" t="s">
         <v>74</v>
       </c>
-      <c r="N20" t="s">
-        <v>75</v>
-      </c>
       <c r="O20" s="32" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -2853,22 +2848,22 @@
       <c r="L21" s="8">
         <v>8</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="N21" t="s">
         <v>77</v>
       </c>
-      <c r="N21" t="s">
-        <v>78</v>
-      </c>
       <c r="O21" s="32" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>17</v>
@@ -2900,22 +2895,22 @@
       <c r="L22" s="8">
         <v>8</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
         <v>79</v>
       </c>
-      <c r="N22" t="s">
-        <v>80</v>
-      </c>
       <c r="O22" s="32" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>17</v>
@@ -2947,22 +2942,22 @@
       <c r="L23" s="8">
         <v>8</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" t="s">
         <v>81</v>
       </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
       <c r="O23" s="32" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>17</v>
@@ -2994,22 +2989,22 @@
       <c r="L24" s="8">
         <v>8</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
         <v>84</v>
       </c>
-      <c r="N24" t="s">
-        <v>85</v>
-      </c>
       <c r="O24" s="32" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3041,25 +3036,25 @@
       <c r="L25" s="8">
         <v>8</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" t="s">
         <v>86</v>
       </c>
-      <c r="N25" t="s">
-        <v>87</v>
-      </c>
       <c r="O25" s="32" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
@@ -3088,25 +3083,25 @@
       <c r="L26" s="8">
         <v>8</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
         <v>89</v>
       </c>
-      <c r="N26" t="s">
-        <v>90</v>
-      </c>
       <c r="O26" s="32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8">
         <v>10</v>
@@ -3135,22 +3130,22 @@
       <c r="L27" s="8">
         <v>8</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="N27" t="s">
         <v>91</v>
       </c>
-      <c r="N27" t="s">
-        <v>92</v>
-      </c>
       <c r="O27" s="32" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3182,22 +3177,22 @@
       <c r="L28" s="8">
         <v>8</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
         <v>94</v>
       </c>
-      <c r="N28" t="s">
-        <v>95</v>
-      </c>
       <c r="O28" s="32" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>17</v>
@@ -3229,25 +3224,25 @@
       <c r="L29" s="8">
         <v>8</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
         <v>97</v>
       </c>
-      <c r="N29" t="s">
-        <v>98</v>
-      </c>
       <c r="O29" s="32" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8">
         <v>3</v>
@@ -3276,25 +3271,25 @@
       <c r="L30" s="8">
         <v>8</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" t="s">
         <v>100</v>
       </c>
-      <c r="N30" t="s">
-        <v>101</v>
-      </c>
       <c r="O30" s="32" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="8">
         <v>3</v>
@@ -3323,25 +3318,25 @@
       <c r="L31" s="8">
         <v>8</v>
       </c>
-      <c r="M31" s="28" t="s">
+      <c r="M31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" t="s">
         <v>103</v>
       </c>
-      <c r="N31" t="s">
-        <v>104</v>
-      </c>
       <c r="O31" s="32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="8">
         <v>3</v>
@@ -3370,25 +3365,25 @@
       <c r="L32" s="8">
         <v>8</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M32" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" t="s">
         <v>106</v>
       </c>
-      <c r="N32" t="s">
-        <v>107</v>
-      </c>
       <c r="O32" s="32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="16">
         <v>5</v>
@@ -3417,25 +3412,25 @@
       <c r="L33" s="8">
         <v>8</v>
       </c>
-      <c r="M33" s="28" t="s">
+      <c r="M33" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" t="s">
         <v>108</v>
       </c>
-      <c r="N33" t="s">
-        <v>109</v>
-      </c>
       <c r="O33" s="32" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="8">
         <v>3</v>
@@ -3464,25 +3459,25 @@
       <c r="L34" s="8">
         <v>8</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" t="s">
         <v>111</v>
       </c>
-      <c r="N34" t="s">
-        <v>112</v>
-      </c>
       <c r="O34" s="32" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="8">
         <v>3</v>
@@ -3511,25 +3506,25 @@
       <c r="L35" s="8">
         <v>8</v>
       </c>
-      <c r="M35" s="28" t="s">
-        <v>114</v>
+      <c r="M35" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="8">
         <v>3</v>
@@ -3558,25 +3553,25 @@
       <c r="L36" s="8">
         <v>8</v>
       </c>
-      <c r="M36" s="28" t="s">
-        <v>117</v>
+      <c r="M36" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="16">
         <v>5</v>
@@ -3605,25 +3600,25 @@
       <c r="L37" s="8">
         <v>8</v>
       </c>
-      <c r="M37" s="28" t="s">
-        <v>119</v>
+      <c r="M37" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="8">
         <v>10</v>
@@ -3652,25 +3647,25 @@
       <c r="L38" s="8">
         <v>8</v>
       </c>
-      <c r="M38" s="28" t="s">
-        <v>121</v>
+      <c r="M38" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="N38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -3699,25 +3694,25 @@
       <c r="L39" s="8">
         <v>8</v>
       </c>
-      <c r="M39" s="28" t="s">
-        <v>124</v>
+      <c r="M39" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8">
         <v>3</v>
@@ -3746,25 +3741,25 @@
       <c r="L40" s="8">
         <v>8</v>
       </c>
-      <c r="M40" s="28" t="s">
-        <v>128</v>
+      <c r="M40" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="N40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8">
         <v>10</v>
@@ -3793,25 +3788,25 @@
       <c r="L41" s="8">
         <v>8</v>
       </c>
-      <c r="M41" s="28" t="s">
-        <v>130</v>
+      <c r="M41" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="8">
         <v>3</v>
@@ -3840,25 +3835,25 @@
       <c r="L42" s="8">
         <v>8</v>
       </c>
-      <c r="M42" s="28" t="s">
-        <v>133</v>
+      <c r="M42" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="N42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8">
         <v>3</v>
@@ -3887,25 +3882,25 @@
       <c r="L43" s="8">
         <v>8</v>
       </c>
-      <c r="M43" s="28" t="s">
-        <v>136</v>
+      <c r="M43" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="N43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="16">
         <v>5</v>
@@ -3934,25 +3929,25 @@
       <c r="L44" s="8">
         <v>8</v>
       </c>
-      <c r="M44" s="28" t="s">
-        <v>138</v>
+      <c r="M44" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="N44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="8">
         <v>10</v>
@@ -3981,25 +3976,25 @@
       <c r="L45" s="8">
         <v>8</v>
       </c>
-      <c r="M45" s="28" t="s">
-        <v>140</v>
+      <c r="M45" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="N45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="8">
         <v>3</v>
@@ -4028,25 +4023,25 @@
       <c r="L46" s="8">
         <v>8</v>
       </c>
-      <c r="M46" s="28" t="s">
-        <v>143</v>
+      <c r="M46" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="N46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8">
         <v>3</v>
@@ -4075,25 +4070,25 @@
       <c r="L47" s="8">
         <v>8</v>
       </c>
-      <c r="M47" s="28" t="s">
-        <v>147</v>
+      <c r="M47" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="N47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8">
         <v>3</v>
@@ -4122,25 +4117,25 @@
       <c r="L48" s="8">
         <v>8</v>
       </c>
-      <c r="M48" s="28" t="s">
-        <v>150</v>
+      <c r="M48" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="N48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8">
         <v>3</v>
@@ -4169,25 +4164,25 @@
       <c r="L49" s="8">
         <v>8</v>
       </c>
-      <c r="M49" s="28" t="s">
-        <v>153</v>
+      <c r="M49" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="N49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
@@ -4216,25 +4211,25 @@
       <c r="L50" s="8">
         <v>8</v>
       </c>
-      <c r="M50" s="28" t="s">
-        <v>155</v>
+      <c r="M50" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="N50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8">
         <v>10</v>
@@ -4263,25 +4258,25 @@
       <c r="L51" s="8">
         <v>8</v>
       </c>
-      <c r="M51" s="28" t="s">
-        <v>157</v>
+      <c r="M51" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="N51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D52" s="8">
         <v>3</v>
@@ -4310,25 +4305,25 @@
       <c r="L52" s="8">
         <v>8</v>
       </c>
-      <c r="M52" s="28" t="s">
-        <v>160</v>
+      <c r="M52" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="N52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="8">
         <v>3</v>
@@ -4357,25 +4352,25 @@
       <c r="L53" s="8">
         <v>8</v>
       </c>
-      <c r="M53" s="28" t="s">
-        <v>163</v>
+      <c r="M53" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="N53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="8">
         <v>5</v>
@@ -4404,25 +4399,25 @@
       <c r="L54" s="8">
         <v>8</v>
       </c>
-      <c r="M54" s="28" t="s">
-        <v>166</v>
+      <c r="M54" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="16">
         <v>5</v>
@@ -4451,25 +4446,25 @@
       <c r="L55" s="8">
         <v>8</v>
       </c>
-      <c r="M55" s="28" t="s">
-        <v>169</v>
+      <c r="M55" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="N55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="8">
         <v>10</v>
@@ -4498,25 +4493,25 @@
       <c r="L56" s="8">
         <v>8</v>
       </c>
-      <c r="M56" s="28" t="s">
-        <v>171</v>
+      <c r="M56" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="N56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
@@ -4545,25 +4540,25 @@
       <c r="L57" s="8">
         <v>8</v>
       </c>
-      <c r="M57" s="28" t="s">
+      <c r="M57" s="32" t="s">
         <v>173</v>
       </c>
       <c r="N57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="8">
         <v>3</v>
@@ -4592,25 +4587,25 @@
       <c r="L58" s="8">
         <v>8</v>
       </c>
-      <c r="M58" s="28" t="s">
-        <v>175</v>
+      <c r="M58" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="N58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="8">
         <v>10</v>
@@ -4639,22 +4634,22 @@
       <c r="L59" s="8">
         <v>8</v>
       </c>
-      <c r="M59" s="28" t="s">
-        <v>177</v>
+      <c r="M59" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="N59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>17</v>
@@ -4686,22 +4681,22 @@
       <c r="L60" s="8">
         <v>8</v>
       </c>
-      <c r="M60" s="28" t="s">
-        <v>180</v>
+      <c r="M60" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="N60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>17</v>
@@ -4733,25 +4728,25 @@
       <c r="L61" s="8">
         <v>8</v>
       </c>
-      <c r="M61" s="28" t="s">
-        <v>182</v>
+      <c r="M61" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="N61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="16">
         <v>5</v>
@@ -4780,25 +4775,25 @@
       <c r="L62" s="8">
         <v>8</v>
       </c>
-      <c r="M62" s="28" t="s">
-        <v>185</v>
+      <c r="M62" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="N62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" s="16">
         <v>5</v>
@@ -4827,25 +4822,25 @@
       <c r="L63" s="8">
         <v>8</v>
       </c>
-      <c r="M63" s="28" t="s">
-        <v>188</v>
+      <c r="M63" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="N63" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64" s="8">
         <v>10</v>
@@ -4874,25 +4869,25 @@
       <c r="L64" s="8">
         <v>8</v>
       </c>
-      <c r="M64" s="28" t="s">
-        <v>190</v>
+      <c r="M64" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="N64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="8">
         <v>10</v>
@@ -4921,22 +4916,22 @@
       <c r="L65" s="8">
         <v>8</v>
       </c>
-      <c r="M65" s="28" t="s">
-        <v>193</v>
+      <c r="M65" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="N65" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>17</v>
@@ -4968,25 +4963,25 @@
       <c r="L66" s="8">
         <v>8</v>
       </c>
-      <c r="M66" s="28" t="s">
-        <v>196</v>
+      <c r="M66" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="N66" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D67" s="8">
         <v>3</v>
@@ -5015,25 +5010,25 @@
       <c r="L67" s="8">
         <v>8</v>
       </c>
-      <c r="M67" s="28" t="s">
-        <v>199</v>
+      <c r="M67" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="N67" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D68" s="16">
         <v>5</v>
@@ -5062,25 +5057,25 @@
       <c r="L68" s="8">
         <v>8</v>
       </c>
-      <c r="M68" s="28" t="s">
-        <v>201</v>
+      <c r="M68" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="N68" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D69" s="8">
         <v>10</v>
@@ -5109,25 +5104,25 @@
       <c r="L69" s="8">
         <v>8</v>
       </c>
-      <c r="M69" s="28" t="s">
-        <v>203</v>
+      <c r="M69" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="N69" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
@@ -5156,25 +5151,25 @@
       <c r="L70" s="8">
         <v>8</v>
       </c>
-      <c r="M70" s="28" t="s">
-        <v>205</v>
+      <c r="M70" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="N70" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O70" s="32" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B71" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D71" s="8">
         <v>5</v>
@@ -5203,25 +5198,25 @@
       <c r="L71" s="8">
         <v>8</v>
       </c>
-      <c r="M71" s="28" t="s">
-        <v>208</v>
+      <c r="M71" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="N71" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="8">
         <v>10</v>
@@ -5250,25 +5245,25 @@
       <c r="L72" s="8">
         <v>8</v>
       </c>
-      <c r="M72" s="28" t="s">
-        <v>211</v>
+      <c r="M72" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="N72" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B73" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="8">
         <v>10</v>
@@ -5297,25 +5292,25 @@
       <c r="L73" s="8">
         <v>8</v>
       </c>
-      <c r="M73" s="28" t="s">
-        <v>214</v>
+      <c r="M73" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="N73" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D74" s="8">
         <v>2</v>
@@ -5344,22 +5339,22 @@
       <c r="L74" s="8">
         <v>8</v>
       </c>
-      <c r="M74" s="28" t="s">
-        <v>217</v>
+      <c r="M74" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="N74" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="30" t="s">
         <v>17</v>
@@ -5391,25 +5386,25 @@
       <c r="L75" s="8">
         <v>8</v>
       </c>
-      <c r="M75" s="28" t="s">
-        <v>220</v>
+      <c r="M75" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="N75" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
@@ -5438,22 +5433,22 @@
       <c r="L76" s="8">
         <v>8</v>
       </c>
-      <c r="M76" s="28" t="s">
-        <v>223</v>
+      <c r="M76" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="N76" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O76" s="32" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>17</v>
@@ -5485,22 +5480,22 @@
       <c r="L77" s="8">
         <v>8</v>
       </c>
-      <c r="M77" s="28" t="s">
-        <v>226</v>
+      <c r="M77" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="N77" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="O77" s="32" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>17</v>
@@ -5532,22 +5527,22 @@
       <c r="L78" s="8">
         <v>8</v>
       </c>
-      <c r="M78" s="28" t="s">
-        <v>229</v>
+      <c r="M78" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="N78" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>17</v>
@@ -5579,25 +5574,25 @@
       <c r="L79" s="8">
         <v>8</v>
       </c>
-      <c r="M79" s="28" t="s">
-        <v>232</v>
+      <c r="M79" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="N79" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B80" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="8">
         <v>10</v>
@@ -5626,25 +5621,25 @@
       <c r="L80" s="8">
         <v>8</v>
       </c>
-      <c r="M80" s="28" t="s">
-        <v>235</v>
+      <c r="M80" s="32" t="s">
+        <v>219</v>
       </c>
       <c r="N80" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D81" s="8">
         <v>10</v>
@@ -5673,25 +5668,25 @@
       <c r="L81" s="8">
         <v>8</v>
       </c>
-      <c r="M81" s="28" t="s">
-        <v>238</v>
+      <c r="M81" s="32" t="s">
+        <v>222</v>
       </c>
       <c r="N81" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D82" s="8">
         <v>10</v>
@@ -5720,25 +5715,25 @@
       <c r="L82" s="8">
         <v>8</v>
       </c>
-      <c r="M82" s="28" t="s">
-        <v>241</v>
+      <c r="M82" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="N82" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="16">
         <v>10</v>
@@ -5767,22 +5762,22 @@
       <c r="L83" s="8">
         <v>8</v>
       </c>
-      <c r="M83" s="28" t="s">
-        <v>243</v>
+      <c r="M83" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="N83" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="30" t="s">
         <v>17</v>
@@ -5814,25 +5809,25 @@
       <c r="L84" s="8">
         <v>8</v>
       </c>
-      <c r="M84" s="28" t="s">
-        <v>246</v>
+      <c r="M84" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="N84" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D85" s="8">
         <v>10</v>
@@ -5861,25 +5856,25 @@
       <c r="L85" s="8">
         <v>8</v>
       </c>
-      <c r="M85" s="28" t="s">
-        <v>249</v>
+      <c r="M85" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="N85" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="9" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D86" s="8">
         <v>10</v>
@@ -5908,25 +5903,25 @@
       <c r="L86" s="8">
         <v>8</v>
       </c>
-      <c r="M86" s="28" t="s">
-        <v>252</v>
+      <c r="M86" s="32" t="s">
+        <v>254</v>
       </c>
       <c r="N86" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D87" s="8">
         <v>10</v>
@@ -5955,25 +5950,25 @@
       <c r="L87" s="8">
         <v>8</v>
       </c>
-      <c r="M87" s="28" t="s">
-        <v>255</v>
+      <c r="M87" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="N87" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O87" s="32" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D88" s="8">
         <v>5</v>
@@ -6002,22 +5997,22 @@
       <c r="L88" s="8">
         <v>8</v>
       </c>
-      <c r="M88" s="28" t="s">
-        <v>258</v>
+      <c r="M88" s="32" t="s">
+        <v>347</v>
       </c>
       <c r="N88" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="O88" s="32" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" s="31" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>17</v>
@@ -6049,22 +6044,22 @@
       <c r="L89" s="8">
         <v>8</v>
       </c>
-      <c r="M89" s="28" t="s">
-        <v>261</v>
+      <c r="M89" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="N89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O89" s="32" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>17</v>
@@ -6096,14 +6091,14 @@
       <c r="L90" s="8">
         <v>8</v>
       </c>
-      <c r="M90" s="28" t="s">
-        <v>263</v>
+      <c r="M90" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="N90" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O90" s="32" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
